--- a/tableau_data.xlsx
+++ b/tableau_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/596d71710210357a/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1635F474-4D0E-43D5-B38F-B637E605CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="8_{1635F474-4D0E-43D5-B38F-B637E605CF0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E5C2688-8DF6-41F8-88A9-002B9C5E74D6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{497392A3-7FCC-4A7D-AC5C-70BC99828C90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Summer</t>
   </si>
@@ -48,6 +48,39 @@
   </si>
   <si>
     <t>Fall</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Connecticut, Maine, Massachusetts, New Hampshire, Rhode Island, Vermont</t>
+  </si>
+  <si>
+    <t>New Jersey, New York, Puerto Rico, U.S. Virgin Islands</t>
+  </si>
+  <si>
+    <t>Delaware, District of Columbia, Maryland, Pennsylvania, Virginia, West Virginia</t>
+  </si>
+  <si>
+    <t>Alabama, Florida, Georgia, Kentucky, Mississippi, North Carolina, South Carolina, Tennessee</t>
+  </si>
+  <si>
+    <t>Illinois, Indiana, Michigan, Minnesota, Ohio, Wisconsin</t>
+  </si>
+  <si>
+    <t>Arkansas, Louisiana, New Mexico, Oklahoma, Texas</t>
+  </si>
+  <si>
+    <t>Iowa, Kansas, Missouri, Nebraska</t>
+  </si>
+  <si>
+    <t>Colorado, Montana, North Dakota, South Dakota, Utah, Wyoming</t>
+  </si>
+  <si>
+    <t>Arizona, California, Hawaii, Nevada, Pacific Islands (including American Samoa, Guam, and Northern Mariana Islands)</t>
+  </si>
+  <si>
+    <t>Alaska, Idaho, Oregon, Washington</t>
   </si>
 </sst>
 </file>
@@ -419,15 +452,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97A0C4C3-5A0C-484A-A81E-E21CFA576559}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -440,8 +473,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>17334</v>
       </c>
@@ -454,8 +490,11 @@
       <c r="D2">
         <v>8098</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>39277</v>
       </c>
@@ -468,8 +507,11 @@
       <c r="D3">
         <v>14606</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>47667</v>
       </c>
@@ -482,8 +524,11 @@
       <c r="D4">
         <v>27800</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>91245</v>
       </c>
@@ -496,8 +541,11 @@
       <c r="D5">
         <v>70512</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>78795</v>
       </c>
@@ -510,8 +558,11 @@
       <c r="D6">
         <v>59436</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>62005</v>
       </c>
@@ -524,8 +575,11 @@
       <c r="D7">
         <v>44890</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20814</v>
       </c>
@@ -538,8 +592,11 @@
       <c r="D8">
         <v>17841</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>11794</v>
       </c>
@@ -552,8 +609,11 @@
       <c r="D9">
         <v>13668</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>74720</v>
       </c>
@@ -566,8 +626,11 @@
       <c r="D10">
         <v>31575</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10574</v>
       </c>
@@ -579,6 +642,9 @@
       </c>
       <c r="D11">
         <v>11059</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
